--- a/utils/Tools/excel/11_item_道具表.xlsx
+++ b/utils/Tools/excel/11_item_道具表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22785" windowHeight="9270"/>
+    <workbookView windowWidth="21075" windowHeight="8730"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -26,8 +26,71 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>YN12</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>YN12:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+0货币
+1普通道具
+2材料
+3装备
+4任务道具</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">YN12:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>0无
+1基础道具
+2装备
+3材料
+4任务
+5待定</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t>道具id</t>
   </si>
@@ -38,9 +101,18 @@
     <t>道具描述</t>
   </si>
   <si>
+    <t>所属背包</t>
+  </si>
+  <si>
     <t>道具品质</t>
   </si>
   <si>
+    <t>是否绑定</t>
+  </si>
+  <si>
+    <t>最大堆叠数量</t>
+  </si>
+  <si>
     <t>分解获得</t>
   </si>
   <si>
@@ -59,9 +131,18 @@
     <t>desc</t>
   </si>
   <si>
+    <t>bagType</t>
+  </si>
+  <si>
     <t>quality</t>
   </si>
   <si>
+    <t>bind</t>
+  </si>
+  <si>
+    <t>maxStack</t>
+  </si>
+  <si>
     <t>decompose</t>
   </si>
   <si>
@@ -71,7 +152,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>[]{int id;int num}</t>
+    <t>[]{int32 id;int32 num}</t>
   </si>
   <si>
     <t>s</t>
@@ -83,6 +164,9 @@
     <t>金币</t>
   </si>
   <si>
+    <t>银币</t>
+  </si>
+  <si>
     <t>钻石</t>
   </si>
   <si>
@@ -92,10 +176,52 @@
     <t>体力</t>
   </si>
   <si>
+    <t>活跃度</t>
+  </si>
+  <si>
     <t>资源包1</t>
   </si>
   <si>
-    <t>1,1000|2,10</t>
+    <t>{1,100|2,1000}</t>
+  </si>
+  <si>
+    <t>资源包2</t>
+  </si>
+  <si>
+    <t>{3,1000}</t>
+  </si>
+  <si>
+    <t>铁矿</t>
+  </si>
+  <si>
+    <t>布料</t>
+  </si>
+  <si>
+    <t>粘合剂</t>
+  </si>
+  <si>
+    <t>头盔</t>
+  </si>
+  <si>
+    <t>胸甲</t>
+  </si>
+  <si>
+    <t>肩甲</t>
+  </si>
+  <si>
+    <t>腿甲</t>
+  </si>
+  <si>
+    <t>铁靴</t>
+  </si>
+  <si>
+    <t>武器</t>
+  </si>
+  <si>
+    <t>通关奖章</t>
+  </si>
+  <si>
+    <t>{2,1000}</t>
   </si>
 </sst>
 </file>
@@ -108,7 +234,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,13 +386,30 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -587,7 +730,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -611,16 +754,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -629,90 +772,93 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1240,15 +1386,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="19.125" customWidth="1"/>
@@ -1258,189 +1404,550 @@
     <col min="6" max="6" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="3:6">
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>1001</v>
+      </c>
+      <c r="B12">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>1001</v>
-      </c>
-      <c r="B10">
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>1002</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1000</v>
+      </c>
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>110001</v>
+      </c>
+      <c r="B14">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10">
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14">
         <v>3</v>
       </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>1002</v>
-      </c>
-      <c r="B11">
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>110002</v>
+      </c>
+      <c r="B15">
         <v>2</v>
       </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11">
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15">
         <v>3</v>
       </c>
-      <c r="E11" t="s">
-        <v>22</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>110003</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>1401001</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>1401002</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>1401003</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>1401004</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>1401005</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>1401006</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>1800001</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>1000</v>
+      </c>
+      <c r="H23" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>